--- a/Document/Bảng đánh giá cá nhân.xlsx
+++ b/Document/Bảng đánh giá cá nhân.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/University/He quan tri CSDL/QuanLyCauHoiTracNghiem/Document/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>BẢNG ĐÁNH GIÁ CÁ NHÂN - NHÓM 5</t>
   </si>
@@ -110,16 +121,27 @@
 Liệt kê mô tả ... lỗi tranh chấp (….)
 Tổng hợp báo cáo lần 3</t>
   </si>
+  <si>
+    <t>Không có</t>
+  </si>
+  <si>
+    <t>Victim: SP_LOADDSGV
+Cause: SP_GVQLCAPQUYEN</t>
+  </si>
+  <si>
+    <t>Victim: SP_LOAD_DSGV_CUNG_GVQL
+Cause: SP_UPDATEGVQL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +149,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -135,14 +157,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -150,14 +172,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,38 +244,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -261,40 +283,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -303,7 +325,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -311,10 +333,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -322,11 +344,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -336,40 +386,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -378,9 +416,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,22 +425,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,292 +712,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="16" width="15.58203125" customWidth="1"/>
+    <col min="7" max="16" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="24" customFormat="1" ht="23" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:18" s="23" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="16"/>
+      <c r="M3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17" t="s">
+      <c r="N3" s="20"/>
+      <c r="O3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="6" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="11" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
     </row>
-    <row r="5" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1642050</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1642067</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>1642071</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>1642076</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="28">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1642084</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G2:R2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="I3:J3"/>
@@ -989,7 +1037,6 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="G2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>

--- a/Document/Bảng đánh giá cá nhân.xlsx
+++ b/Document/Bảng đánh giá cá nhân.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/University/He quan tri CSDL/QuanLyCauHoiTracNghiem/Document/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +14,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>BẢNG ĐÁNH GIÁ CÁ NHÂN - NHÓM 5</t>
   </si>
@@ -132,16 +127,23 @@
     <t>Victim: SP_LOAD_DSGV_CUNG_GVQL
 Cause: SP_UPDATEGVQL</t>
   </si>
+  <si>
+    <t>sp_CapNhatMonHoc
+sp_LayMonHoc</t>
+  </si>
+  <si>
+    <t>Thêm môn học</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -149,7 +151,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -157,14 +159,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,14 +174,14 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,6 +376,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,21 +430,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,17 +714,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="6.83203125" customWidth="1"/>
@@ -732,105 +734,105 @@
     <col min="7" max="16" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:18" s="7" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="14"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="19" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="23" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="6" t="s">
         <v>12</v>
       </c>
@@ -861,45 +863,69 @@
       <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
-    <row r="5" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1642050</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="R5" s="11">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>1642067</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
@@ -918,14 +944,14 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>1642071</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
@@ -944,14 +970,14 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>1642076</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="10" t="s">
         <v>22</v>
       </c>
@@ -988,18 +1014,18 @@
         <v>24</v>
       </c>
       <c r="Q8" s="9"/>
-      <c r="R8" s="28">
+      <c r="R8" s="11">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="200" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>1642084</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1020,6 +1046,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="G2:R2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="C5:C9"/>
@@ -1036,7 +1063,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
